--- a/Wine_Quality/outputs/train_90_test_10/depth_7/wq_train_90_test_10_depth_7_report.xlsx
+++ b/Wine_Quality/outputs/train_90_test_10/depth_7/wq_train_90_test_10_depth_7_report.xlsx
@@ -458,58 +458,58 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>High quality</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.5943396226415094</v>
       </c>
       <c r="C2" t="n">
-        <v>0.1666666666666667</v>
+        <v>0.4921875</v>
       </c>
       <c r="D2" t="n">
-        <v>0.2222222222222222</v>
+        <v>0.5384615384615384</v>
       </c>
       <c r="E2" t="n">
-        <v>24</v>
+        <v>128</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>Low quality</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.827027027027027</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9216867469879518</v>
+        <v>0.08333333333333333</v>
       </c>
       <c r="D3" t="n">
-        <v>0.8717948717948718</v>
+        <v>0.1333333333333333</v>
       </c>
       <c r="E3" t="n">
-        <v>498</v>
+        <v>24</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>Standard quality</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.5903614457831325</v>
+        <v>0.8420074349442379</v>
       </c>
       <c r="C4" t="n">
-        <v>0.3828125</v>
+        <v>0.9096385542168675</v>
       </c>
       <c r="D4" t="n">
-        <v>0.4644549763033176</v>
+        <v>0.8745173745173745</v>
       </c>
       <c r="E4" t="n">
-        <v>128</v>
+        <v>498</v>
       </c>
     </row>
     <row r="5">
@@ -519,16 +519,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.7876923076923077</v>
+        <v>0.796923076923077</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7876923076923077</v>
+        <v>0.796923076923077</v>
       </c>
       <c r="D5" t="n">
-        <v>0.7876923076923077</v>
+        <v>0.796923076923077</v>
       </c>
       <c r="E5" t="n">
-        <v>0.7876923076923077</v>
+        <v>0.796923076923077</v>
       </c>
     </row>
     <row r="6">
@@ -538,13 +538,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.5835739353811643</v>
+        <v>0.5898934636396935</v>
       </c>
       <c r="C6" t="n">
-        <v>0.4903886378848728</v>
+        <v>0.4950531291834002</v>
       </c>
       <c r="D6" t="n">
-        <v>0.5194906901068039</v>
+        <v>0.5154374154374154</v>
       </c>
       <c r="E6" t="n">
         <v>650</v>
@@ -557,13 +557,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.7621934223380007</v>
+        <v>0.7744541143082211</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7876923076923077</v>
+        <v>0.796923076923077</v>
       </c>
       <c r="D7" t="n">
-        <v>0.7675960253138525</v>
+        <v>0.7809734298965069</v>
       </c>
       <c r="E7" t="n">
         <v>650</v>

--- a/Wine_Quality/outputs/train_90_test_10/depth_7/wq_train_90_test_10_depth_7_report.xlsx
+++ b/Wine_Quality/outputs/train_90_test_10/depth_7/wq_train_90_test_10_depth_7_report.xlsx
@@ -462,13 +462,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.5943396226415094</v>
+        <v>0.59</v>
       </c>
       <c r="C2" t="n">
-        <v>0.4921875</v>
+        <v>0.49</v>
       </c>
       <c r="D2" t="n">
-        <v>0.5384615384615384</v>
+        <v>0.54</v>
       </c>
       <c r="E2" t="n">
         <v>128</v>
@@ -481,13 +481,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.33</v>
       </c>
       <c r="C3" t="n">
-        <v>0.08333333333333333</v>
+        <v>0.08</v>
       </c>
       <c r="D3" t="n">
-        <v>0.1333333333333333</v>
+        <v>0.13</v>
       </c>
       <c r="E3" t="n">
         <v>24</v>
@@ -500,13 +500,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.8420074349442379</v>
+        <v>0.84</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9096385542168675</v>
+        <v>0.91</v>
       </c>
       <c r="D4" t="n">
-        <v>0.8745173745173745</v>
+        <v>0.87</v>
       </c>
       <c r="E4" t="n">
         <v>498</v>
@@ -518,17 +518,13 @@
           <t>accuracy</t>
         </is>
       </c>
-      <c r="B5" t="n">
-        <v>0.796923076923077</v>
-      </c>
-      <c r="C5" t="n">
-        <v>0.796923076923077</v>
-      </c>
+      <c r="B5" t="inlineStr"/>
+      <c r="C5" t="inlineStr"/>
       <c r="D5" t="n">
-        <v>0.796923076923077</v>
+        <v>0.8</v>
       </c>
       <c r="E5" t="n">
-        <v>0.796923076923077</v>
+        <v>650</v>
       </c>
     </row>
     <row r="6">
@@ -538,13 +534,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.5898934636396935</v>
+        <v>0.59</v>
       </c>
       <c r="C6" t="n">
-        <v>0.4950531291834002</v>
+        <v>0.5</v>
       </c>
       <c r="D6" t="n">
-        <v>0.5154374154374154</v>
+        <v>0.52</v>
       </c>
       <c r="E6" t="n">
         <v>650</v>
@@ -557,13 +553,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.7744541143082211</v>
+        <v>0.77</v>
       </c>
       <c r="C7" t="n">
-        <v>0.796923076923077</v>
+        <v>0.8</v>
       </c>
       <c r="D7" t="n">
-        <v>0.7809734298965069</v>
+        <v>0.78</v>
       </c>
       <c r="E7" t="n">
         <v>650</v>
